--- a/data/trans_bre/P44_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P44_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-13,51</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,18</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,37</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-32,26%</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>43,75%</t>
+          <t>-50,8%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,73%</t>
+          <t>72,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>312,6%</t>
+          <t>-36,48%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>128,36%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-54,92; 9,53</t>
+          <t>-18,93; 1,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 28,65</t>
+          <t>-1,74; 4,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,35; 21,09</t>
+          <t>-3,01; 1,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 33,5</t>
+          <t>0,39; 3,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-74,85; 43,24</t>
+          <t>-1,36; 5,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-46,01; 496,43</t>
+          <t>-95,95; 82,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-85,52; 597,84</t>
+          <t>-72,21; 1101,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-87,73; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,33</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,85</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-19,67%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,45%</t>
+          <t>57,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>107,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>357,29%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>375,59%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,44; 12,24</t>
+          <t>-2,94; 9,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 23,71</t>
+          <t>-1,11; 11,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,32; 26,77</t>
+          <t>1,3; 11,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 29,71</t>
+          <t>1,44; 12,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,02; 39,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,56; 125,4</t>
+          <t>-42,24; 348,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-50,4; 220,54</t>
+          <t>-25,04; 534,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,53; 352,38</t>
+          <t>-14,97; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-12,62; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,32</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,97</t>
+          <t>8,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-30,08</t>
+          <t>10,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,84</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>230,29%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>231,32%</t>
+          <t>162,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-52,93%</t>
+          <t>215,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,40 +934,50 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 51,33</t>
+          <t>-6,33; 18,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,71; 49,12</t>
+          <t>-3,55; 21,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-88,46; 44,78</t>
+          <t>2,46; 23,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>2,17; 20,79</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,17</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,56</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-14,08%</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>-0,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>110,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>51,06%</t>
+          <t>229,77%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>598,22%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>137,16%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,32; 9,6</t>
+          <t>-7,41; 3,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 18,92</t>
+          <t>0,45; 7,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 17,62</t>
+          <t>0,75; 5,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 22,44</t>
+          <t>1,75; 6,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,32; 34,53</t>
+          <t>-0,89; 2,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,21; 120,32</t>
+          <t>-63,71; 104,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,88; 115,18</t>
+          <t>3,19; 380,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,97; 274,98</t>
+          <t>1,11; 1231,16</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>15,98; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P44_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P44_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,213 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-3,94</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,51</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-50,8%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>72,83%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-36,48%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>128,36%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-31.57937775671249</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-3.885017159189019</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-10.88494798821297</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>10.63515869427867</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>6.821209770174755</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.579400354138829</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1615297082804864</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.5407666844877195</v>
+      </c>
+      <c r="K4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.3761920167453593</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-18,93; 1,77</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,74; 4,43</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,01; 1,31</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,39; 3,38</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,36; 5,65</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-95,95; 82,06</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-72,21; 1101,57</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-87,73; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-72.69101684529099</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-36.52591897610158</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-48.40125121340916</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>3.36501841669484</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-26.73180146422973</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.8951492339257966</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.8232570480857309</v>
+      </c>
+      <c r="J5" s="6" t="inlineStr"/>
+      <c r="K5" s="6" t="inlineStr"/>
+      <c r="L5" s="6" t="n">
+        <v>-0.8256103886488357</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-0.6436298305686096</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>18.85843356098188</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.03574668510722</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>26.94028725865997</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>29.96673232099173</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>-0.06246350066600015</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.747879582979212</v>
+      </c>
+      <c r="J6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="inlineStr"/>
+      <c r="L6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,13</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,1</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,63</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,76</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>57,42%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>107,02%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>357,29%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>375,59%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,94; 9,19</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,11; 11,13</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,3; 11,43</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>1,44; 12,03</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-42,24; 348,34</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-25,04; 534,04</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-14,97; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-12,62; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>6.242629074513884</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>18.07131512657502</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>30.13607518277344</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>23.07562738486617</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1906830338358641</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.7337451952918781</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>3.278515580801663</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>2.405954698567383</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,5</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,61</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>10,46</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,56</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>162,07%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>215,44%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-21.64844225541092</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-10.71163257474861</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>6.290894718353514</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.37747772070501</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-0.4311622266302557</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.260608228778429</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1071472427582888</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.4970382512811384</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,33; 18,63</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,55; 21,31</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,46; 23,9</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2,17; 20,79</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>33.50322814611724</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>42.75772263853111</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>53.99632982425964</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>43.330759110065</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>2.50213124406902</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>4.48596108116948</v>
+      </c>
+      <c r="J9" s="6" t="inlineStr"/>
+      <c r="K9" s="6" t="inlineStr"/>
+      <c r="L9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +857,185 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,55</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,04</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,75</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-0,47%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>110,06%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>229,77%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>598,22%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>137,16%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>31.44398547682982</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>35.62630486214176</v>
+      </c>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>2.549703895185086</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>3.296257333696059</v>
+      </c>
+      <c r="J10" s="6" t="inlineStr"/>
+      <c r="K10" s="6" t="inlineStr"/>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-7,41; 3,96</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,45; 7,2</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,75; 5,72</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,75; 6,69</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 2,66</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-63,71; 104,6</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>3,19; 380,38</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1,11; 1231,16</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>15,98; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-23.02048503560993</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-12.99660503790812</v>
+      </c>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>77.62424065215224</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>79.85661795715187</v>
+      </c>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-4.43191174612137</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>13.79009930165181</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>16.99840783522646</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>17.95930345850373</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>2.479390321397415</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.1194396970041098</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.6592350761987429</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.32515389696286</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>2.541151854574257</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.2691484805928022</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-31.60344405741281</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-5.774189960990889</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.835442739800126</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.829882682879592</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-18.66295057148237</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.5737871472255899</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1989496431559572</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2351569665875526</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.2732164588155775</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.8529944747264907</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>17.13410132775342</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>30.88338034921326</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>31.97856365513088</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>30.93246651057339</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>14.50028919979495</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.777598325259226</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.786591457393198</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>7.038431338019572</v>
+      </c>
+      <c r="K15" s="6" t="inlineStr"/>
+      <c r="L15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1043,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
